--- a/Short Run Analysis.xlsx
+++ b/Short Run Analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="22700" windowHeight="14320" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sample A Count 1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,7 @@
     <sheet name="Sample D Count 2" sheetId="8" r:id="rId9"/>
     <sheet name="Std Pottery" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -501,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,16 +594,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,19 +984,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1173,7 +1170,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <f>(1/1.128)*((293/600)^(1/2))*R3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*R3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -1251,7 +1248,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S17" si="4">(1/1.128)*((293/600)^(1/2))*R4</f>
+        <f t="shared" ref="S4:S17" si="4">(1/1.128)*((293/473)^(1/2))*R4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="28" t="e">
@@ -1393,7 +1390,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>2.3045151600488123</v>
+        <v>2.3045151600488127</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="2"/>
@@ -1513,7 +1510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15">
+    <row r="10" spans="1:30">
       <c r="A10">
         <f t="shared" ref="A10:A16" si="6">A9+1</f>
         <v>8</v>
@@ -1576,11 +1573,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="4"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="5"/>
-        <v>2.1995039287530963E-4</v>
+        <v>1.9528985691871559E-4</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1634,7 +1631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -1697,11 +1694,11 @@
       </c>
       <c r="S12">
         <f t="shared" si="4"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AD12" s="28">
         <f t="shared" si="5"/>
-        <v>7.617611055204109E-7</v>
+        <v>6.7635349661620479E-7</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1938,11 +1935,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1954,13 +1946,13 @@
       <selection activeCell="G109" sqref="G1:Y109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29" thickBot="1">
+    <row r="1" spans="1:25" ht="40.5" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2027,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17" thickBot="1">
+    <row r="2" spans="1:25" ht="18.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2090,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="29" thickBot="1">
+    <row r="3" spans="1:25" ht="27.75" thickBot="1">
       <c r="A3" s="4">
         <v>510.8</v>
       </c>
@@ -2150,7 +2142,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="17" thickBot="1">
+    <row r="4" spans="1:25" ht="18.75" thickBot="1">
       <c r="A4" s="4">
         <v>558.87</v>
       </c>
@@ -2214,7 +2206,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="17" thickBot="1">
+    <row r="5" spans="1:25" ht="18.75" thickBot="1">
       <c r="A5" s="4">
         <v>656.81</v>
       </c>
@@ -2278,7 +2270,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="17" thickBot="1">
+    <row r="6" spans="1:25" ht="18.75" thickBot="1">
       <c r="A6" s="4">
         <v>1214.25</v>
       </c>
@@ -2342,7 +2334,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="17" thickBot="1">
+    <row r="7" spans="1:25" ht="18.75" thickBot="1">
       <c r="A7" s="4">
         <v>215.79</v>
       </c>
@@ -2406,7 +2398,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="17" thickBot="1">
+    <row r="8" spans="1:25" ht="18.75" thickBot="1">
       <c r="A8" s="4">
         <v>373.05</v>
       </c>
@@ -2470,7 +2462,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="17" thickBot="1">
+    <row r="9" spans="1:25" ht="18.75" thickBot="1">
       <c r="A9" s="4">
         <v>496.12</v>
       </c>
@@ -2534,7 +2526,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="29" thickBot="1">
+    <row r="10" spans="1:25" ht="27.75" thickBot="1">
       <c r="A10" s="4">
         <v>132.76</v>
       </c>
@@ -2596,7 +2588,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="17" thickBot="1">
+    <row r="11" spans="1:25" ht="18.75" thickBot="1">
       <c r="A11" s="4">
         <v>554.08000000000004</v>
       </c>
@@ -2660,7 +2652,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="17" thickBot="1">
+    <row r="12" spans="1:25" ht="18.75" thickBot="1">
       <c r="A12" s="4">
         <v>1474.91</v>
       </c>
@@ -2724,7 +2716,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="17" thickBot="1">
+    <row r="13" spans="1:25" ht="18.75" thickBot="1">
       <c r="A13" s="4">
         <v>1173.1500000000001</v>
       </c>
@@ -2788,7 +2780,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="17" thickBot="1">
+    <row r="14" spans="1:25" ht="18.75" thickBot="1">
       <c r="A14" s="4">
         <v>1332.45</v>
       </c>
@@ -2852,7 +2844,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="17" thickBot="1">
+    <row r="15" spans="1:25" ht="18.75" thickBot="1">
       <c r="A15" s="4">
         <v>319.77999999999997</v>
       </c>
@@ -2916,7 +2908,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="17" thickBot="1">
+    <row r="16" spans="1:25" ht="18.75" thickBot="1">
       <c r="A16" s="4">
         <v>563.66999999999996</v>
       </c>
@@ -2980,7 +2972,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="17" thickBot="1">
+    <row r="17" spans="1:24" ht="18.75" thickBot="1">
       <c r="A17" s="4">
         <v>569.05999999999995</v>
       </c>
@@ -3044,7 +3036,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="17" thickBot="1">
+    <row r="18" spans="1:24" ht="18.75" thickBot="1">
       <c r="A18" s="4">
         <v>604.44000000000005</v>
       </c>
@@ -3108,7 +3100,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="17" thickBot="1">
+    <row r="19" spans="1:24" ht="18.75" thickBot="1">
       <c r="A19" s="4">
         <v>795.64</v>
       </c>
@@ -3172,7 +3164,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="17" thickBot="1">
+    <row r="20" spans="1:24" ht="18.75" thickBot="1">
       <c r="A20" s="4">
         <v>801.67</v>
       </c>
@@ -3236,7 +3228,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="17" thickBot="1">
+    <row r="21" spans="1:24" ht="18.75" thickBot="1">
       <c r="A21" s="4">
         <v>121.52</v>
       </c>
@@ -3300,7 +3292,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="17" thickBot="1">
+    <row r="22" spans="1:24" ht="18.75" thickBot="1">
       <c r="A22" s="4">
         <v>244.39</v>
       </c>
@@ -3364,7 +3356,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="17" thickBot="1">
+    <row r="23" spans="1:24" ht="18.75" thickBot="1">
       <c r="A23" s="4">
         <v>343.99</v>
       </c>
@@ -3428,7 +3420,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="17" thickBot="1">
+    <row r="24" spans="1:24" ht="18.75" thickBot="1">
       <c r="A24" s="4">
         <v>410.94</v>
       </c>
@@ -3492,7 +3484,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="17" thickBot="1">
+    <row r="25" spans="1:24" ht="18.75" thickBot="1">
       <c r="A25" s="4">
         <v>443.71</v>
       </c>
@@ -3556,7 +3548,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="17" thickBot="1">
+    <row r="26" spans="1:24" ht="18.75" thickBot="1">
       <c r="A26" s="4">
         <v>778.63</v>
       </c>
@@ -3620,7 +3612,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="17" thickBot="1">
+    <row r="27" spans="1:24" ht="18.75" thickBot="1">
       <c r="A27" s="4">
         <v>963.98</v>
       </c>
@@ -3684,7 +3676,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="17" thickBot="1">
+    <row r="28" spans="1:24" ht="18.75" thickBot="1">
       <c r="A28" s="4">
         <v>1004.56</v>
       </c>
@@ -3748,7 +3740,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="17" thickBot="1">
+    <row r="29" spans="1:24" ht="18.75" thickBot="1">
       <c r="A29" s="4">
         <v>1085.68</v>
       </c>
@@ -3812,7 +3804,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="17" thickBot="1">
+    <row r="30" spans="1:24" ht="18.75" thickBot="1">
       <c r="A30" s="4">
         <v>1111.97</v>
       </c>
@@ -3876,7 +3868,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="17" thickBot="1">
+    <row r="31" spans="1:24" ht="18.75" thickBot="1">
       <c r="A31" s="4">
         <v>1408.01</v>
       </c>
@@ -3940,7 +3932,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="17" thickBot="1">
+    <row r="32" spans="1:24" ht="18.75" thickBot="1">
       <c r="A32" s="4">
         <v>1274.19</v>
       </c>
@@ -4004,7 +3996,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" ht="17" thickBot="1">
+    <row r="33" spans="1:24" ht="18.75" thickBot="1">
       <c r="A33" s="4">
         <v>191.98</v>
       </c>
@@ -4068,7 +4060,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="17" thickBot="1">
+    <row r="34" spans="1:24" ht="18.75" thickBot="1">
       <c r="A34" s="4">
         <v>1099.1600000000001</v>
       </c>
@@ -4132,7 +4124,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" ht="17" thickBot="1">
+    <row r="35" spans="1:24" ht="18.75" thickBot="1">
       <c r="A35" s="4">
         <v>1291.53</v>
       </c>
@@ -4196,7 +4188,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" ht="17" thickBot="1">
+    <row r="36" spans="1:24" ht="18.75" thickBot="1">
       <c r="A36" s="4">
         <v>481.92</v>
       </c>
@@ -4260,7 +4252,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" ht="17" thickBot="1">
+    <row r="37" spans="1:24" ht="18.75" thickBot="1">
       <c r="A37" s="4">
         <v>1460.54</v>
       </c>
@@ -4324,7 +4316,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" ht="17" thickBot="1">
+    <row r="38" spans="1:24" ht="18.75" thickBot="1">
       <c r="A38" s="4">
         <v>1526.08</v>
       </c>
@@ -4388,7 +4380,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="17" thickBot="1">
+    <row r="39" spans="1:24" ht="18.75" thickBot="1">
       <c r="A39" s="4">
         <v>266.32</v>
       </c>
@@ -4452,7 +4444,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="17" thickBot="1">
+    <row r="40" spans="1:24" ht="18.75" thickBot="1">
       <c r="A40" s="4">
         <v>396.08</v>
       </c>
@@ -4516,7 +4508,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" ht="17" thickBot="1">
+    <row r="41" spans="1:24" ht="18.75" thickBot="1">
       <c r="A41" s="4">
         <v>432.28</v>
       </c>
@@ -4580,7 +4572,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" ht="17" thickBot="1">
+    <row r="42" spans="1:24" ht="18.75" thickBot="1">
       <c r="A42" s="4">
         <v>618.91999999999996</v>
       </c>
@@ -4644,7 +4636,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" ht="17" thickBot="1">
+    <row r="43" spans="1:24" ht="18.75" thickBot="1">
       <c r="A43" s="4">
         <v>751.44</v>
       </c>
@@ -4708,7 +4700,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="17" thickBot="1">
+    <row r="44" spans="1:24" ht="18.75" thickBot="1">
       <c r="A44" s="4">
         <v>815.59</v>
       </c>
@@ -4772,7 +4764,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="17" thickBot="1">
+    <row r="45" spans="1:24" ht="18.75" thickBot="1">
       <c r="A45" s="4">
         <v>919.38</v>
       </c>
@@ -4836,7 +4828,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="17" thickBot="1">
+    <row r="46" spans="1:24" ht="18.75" thickBot="1">
       <c r="A46" s="4">
         <v>925.07</v>
       </c>
@@ -4900,7 +4892,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="17" thickBot="1">
+    <row r="47" spans="1:24" ht="18.75" thickBot="1">
       <c r="A47" s="4">
         <v>950.75</v>
       </c>
@@ -4964,7 +4956,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="17" thickBot="1">
+    <row r="48" spans="1:24" ht="18.75" thickBot="1">
       <c r="A48" s="4">
         <v>1596.23</v>
       </c>
@@ -5028,7 +5020,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="17" thickBot="1">
+    <row r="49" spans="1:24" ht="18.75" thickBot="1">
       <c r="A49" s="4">
         <v>1924.93</v>
       </c>
@@ -5092,7 +5084,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="17" thickBot="1">
+    <row r="50" spans="1:24" ht="18.75" thickBot="1">
       <c r="A50" s="4">
         <v>2082.96</v>
       </c>
@@ -5156,7 +5148,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="17" thickBot="1">
+    <row r="51" spans="1:24" ht="18.75" thickBot="1">
       <c r="A51" s="4">
         <v>2347.69</v>
       </c>
@@ -5220,7 +5212,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="17" thickBot="1">
+    <row r="52" spans="1:24" ht="18.75" thickBot="1">
       <c r="A52" s="4">
         <v>2521.19</v>
       </c>
@@ -5284,7 +5276,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="29" thickBot="1">
+    <row r="53" spans="1:24" ht="27.75" thickBot="1">
       <c r="A53" s="4">
         <v>486.77</v>
       </c>
@@ -5346,7 +5338,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="29" thickBot="1">
+    <row r="54" spans="1:24" ht="27.75" thickBot="1">
       <c r="A54" s="4">
         <v>328.48</v>
       </c>
@@ -5408,7 +5400,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="29" thickBot="1">
+    <row r="55" spans="1:24" ht="40.5" thickBot="1">
       <c r="A55" s="4">
         <v>867.57</v>
       </c>
@@ -5470,7 +5462,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="17" thickBot="1">
+    <row r="56" spans="1:24" ht="18.75" thickBot="1">
       <c r="A56" s="4">
         <v>208.12</v>
       </c>
@@ -5534,7 +5526,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="17" thickBot="1">
+    <row r="57" spans="1:24" ht="18.75" thickBot="1">
       <c r="A57" s="4">
         <v>1368.64</v>
       </c>
@@ -5598,7 +5590,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" ht="17" thickBot="1">
+    <row r="58" spans="1:24" ht="18.75" thickBot="1">
       <c r="A58" s="4">
         <v>2753.73</v>
       </c>
@@ -5662,7 +5654,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="17" thickBot="1">
+    <row r="59" spans="1:24" ht="18.75" thickBot="1">
       <c r="A59" s="4">
         <v>1731.64</v>
       </c>
@@ -5722,7 +5714,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="17" thickBot="1">
+    <row r="60" spans="1:24" ht="18.75" thickBot="1">
       <c r="A60" s="4">
         <v>2242.7800000000002</v>
       </c>
@@ -5782,7 +5774,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" ht="17" thickBot="1">
+    <row r="61" spans="1:24" ht="18.75" thickBot="1">
       <c r="A61" s="4">
         <v>105.78</v>
       </c>
@@ -5846,7 +5838,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="1:24" ht="17" thickBot="1">
+    <row r="62" spans="1:24" ht="18.75" thickBot="1">
       <c r="A62" s="4">
         <v>227.88</v>
       </c>
@@ -5910,7 +5902,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:24" ht="17" thickBot="1">
+    <row r="63" spans="1:24" ht="18.75" thickBot="1">
       <c r="A63" s="4">
         <v>277.25</v>
       </c>
@@ -5974,7 +5966,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" ht="17" thickBot="1">
+    <row r="64" spans="1:24" ht="18.75" thickBot="1">
       <c r="A64" s="4">
         <v>299.45999999999998</v>
       </c>
@@ -6038,7 +6030,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:24" ht="17" thickBot="1">
+    <row r="65" spans="1:24" ht="18.75" thickBot="1">
       <c r="A65" s="4">
         <v>311.60000000000002</v>
       </c>
@@ -6102,7 +6094,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:24" ht="17" thickBot="1">
+    <row r="66" spans="1:24" ht="18.75" thickBot="1">
       <c r="A66" s="4">
         <v>340.2</v>
       </c>
@@ -6166,7 +6158,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="17" thickBot="1">
+    <row r="67" spans="1:24" ht="18.75" thickBot="1">
       <c r="A67" s="4">
         <v>415.42</v>
       </c>
@@ -6230,7 +6222,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="17" thickBot="1">
+    <row r="68" spans="1:24" ht="18.75" thickBot="1">
       <c r="A68" s="4">
         <v>1076.6300000000001</v>
       </c>
@@ -6294,7 +6286,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="17" thickBot="1">
+    <row r="69" spans="1:24" ht="18.75" thickBot="1">
       <c r="A69" s="4">
         <v>889.09</v>
       </c>
@@ -6358,7 +6350,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="17" thickBot="1">
+    <row r="70" spans="1:24" ht="18.75" thickBot="1">
       <c r="A70" s="4">
         <v>159.07</v>
       </c>
@@ -6422,7 +6414,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="17" thickBot="1">
+    <row r="71" spans="1:24" ht="18.75" thickBot="1">
       <c r="A71" s="4">
         <v>69.25</v>
       </c>
@@ -6486,7 +6478,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" ht="17" thickBot="1">
+    <row r="72" spans="1:24" ht="18.75" thickBot="1">
       <c r="A72" s="4">
         <v>98.15</v>
       </c>
@@ -6550,7 +6542,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="1:24" ht="17" thickBot="1">
+    <row r="73" spans="1:24" ht="18.75" thickBot="1">
       <c r="A73" s="4">
         <v>102.85</v>
       </c>
@@ -6614,7 +6606,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="1:24" ht="17" thickBot="1">
+    <row r="74" spans="1:24" ht="18.75" thickBot="1">
       <c r="A74" s="4">
         <v>1188.99</v>
       </c>
@@ -6678,7 +6670,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="1:24" ht="17" thickBot="1">
+    <row r="75" spans="1:24" ht="18.75" thickBot="1">
       <c r="A75" s="4">
         <v>1221.32</v>
       </c>
@@ -6742,7 +6734,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="1:24" ht="17" thickBot="1">
+    <row r="76" spans="1:24" ht="18.75" thickBot="1">
       <c r="A76" s="4">
         <v>1230.8699999999999</v>
       </c>
@@ -6806,7 +6798,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="29" thickBot="1">
+    <row r="77" spans="1:24" ht="27.75" thickBot="1">
       <c r="A77" s="4">
         <v>221.69</v>
       </c>
@@ -6868,7 +6860,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="1:24" ht="29" thickBot="1">
+    <row r="78" spans="1:24" ht="27.75" thickBot="1">
       <c r="A78" s="4">
         <v>1120.46</v>
       </c>
@@ -6930,7 +6922,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:24" ht="17" thickBot="1">
+    <row r="79" spans="1:24" ht="18.75" thickBot="1">
       <c r="A79" s="4">
         <v>2614.2600000000002</v>
       </c>
@@ -6992,7 +6984,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:24" ht="17" thickBot="1">
+    <row r="80" spans="1:24" ht="18.75" thickBot="1">
       <c r="A80" s="4">
         <v>112.98</v>
       </c>
@@ -7056,7 +7048,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="1:24" ht="17" thickBot="1">
+    <row r="81" spans="1:24" ht="18.75" thickBot="1">
       <c r="A81" s="4">
         <v>145.1</v>
       </c>
@@ -7120,7 +7112,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="1:24" ht="17" thickBot="1">
+    <row r="82" spans="1:24" ht="18.75" thickBot="1">
       <c r="A82" s="4">
         <v>282.20999999999998</v>
       </c>
@@ -7184,7 +7176,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="1:24" ht="17" thickBot="1">
+    <row r="83" spans="1:24" ht="18.75" thickBot="1">
       <c r="A83" s="4">
         <v>723.08</v>
       </c>
@@ -7248,7 +7240,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="1:24" ht="17" thickBot="1">
+    <row r="84" spans="1:24" ht="18.75" thickBot="1">
       <c r="A84" s="4">
         <v>756.3</v>
       </c>
@@ -7312,7 +7304,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="1:24" ht="17" thickBot="1">
+    <row r="85" spans="1:24" ht="18.75" thickBot="1">
       <c r="A85" s="11">
         <v>30.7</v>
       </c>
@@ -7370,7 +7362,7 @@
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
     </row>
-    <row r="86" spans="1:24" ht="17" thickBot="1">
+    <row r="86" spans="1:24" ht="18.75" thickBot="1">
       <c r="A86" s="11">
         <v>35.450000000000003</v>
       </c>
@@ -7428,7 +7420,7 @@
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
     </row>
-    <row r="87" spans="1:24" ht="17" thickBot="1">
+    <row r="87" spans="1:24" ht="18.75" thickBot="1">
       <c r="A87" s="11">
         <v>40.72</v>
       </c>
@@ -7486,7 +7478,7 @@
       <c r="W87" s="15"/>
       <c r="X87" s="15"/>
     </row>
-    <row r="88" spans="1:24" ht="17" thickBot="1">
+    <row r="88" spans="1:24" ht="18.75" thickBot="1">
       <c r="A88" s="11">
         <v>46.54</v>
       </c>
@@ -7544,7 +7536,7 @@
       <c r="W88" s="15"/>
       <c r="X88" s="15"/>
     </row>
-    <row r="89" spans="1:24" ht="17" thickBot="1">
+    <row r="89" spans="1:24" ht="18.75" thickBot="1">
       <c r="A89" s="11">
         <v>50.28</v>
       </c>
@@ -7602,7 +7594,7 @@
       <c r="W89" s="15"/>
       <c r="X89" s="15"/>
     </row>
-    <row r="90" spans="1:24" ht="17" thickBot="1">
+    <row r="90" spans="1:24" ht="18.75" thickBot="1">
       <c r="A90" s="11">
         <v>53.74</v>
       </c>
@@ -7660,7 +7652,7 @@
       <c r="W90" s="15"/>
       <c r="X90" s="15"/>
     </row>
-    <row r="91" spans="1:24" ht="17" thickBot="1">
+    <row r="91" spans="1:24" ht="18.75" thickBot="1">
       <c r="A91" s="11">
         <v>57.18</v>
       </c>
@@ -7718,7 +7710,7 @@
       <c r="W91" s="15"/>
       <c r="X91" s="15"/>
     </row>
-    <row r="92" spans="1:24" ht="17" thickBot="1">
+    <row r="92" spans="1:24" ht="18.75" thickBot="1">
       <c r="A92" s="11">
         <v>62.74</v>
       </c>
@@ -7776,7 +7768,7 @@
       <c r="W92" s="15"/>
       <c r="X92" s="15"/>
     </row>
-    <row r="93" spans="1:24" ht="17" thickBot="1">
+    <row r="93" spans="1:24" ht="18.75" thickBot="1">
       <c r="A93" s="11">
         <v>72.41</v>
       </c>
@@ -7834,7 +7826,7 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
     </row>
-    <row r="94" spans="1:24" ht="17" thickBot="1">
+    <row r="94" spans="1:24" ht="18.75" thickBot="1">
       <c r="A94" s="11">
         <v>74.59</v>
       </c>
@@ -7892,7 +7884,7 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
     </row>
-    <row r="95" spans="1:24" ht="17" thickBot="1">
+    <row r="95" spans="1:24" ht="18.75" thickBot="1">
       <c r="A95" s="11">
         <v>84.36</v>
       </c>
@@ -7950,7 +7942,7 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
     </row>
-    <row r="96" spans="1:24" ht="17" thickBot="1">
+    <row r="96" spans="1:24" ht="18.75" thickBot="1">
       <c r="A96" s="11">
         <v>86.69</v>
       </c>
@@ -8008,7 +8000,7 @@
       <c r="W96" s="15"/>
       <c r="X96" s="15"/>
     </row>
-    <row r="97" spans="1:24" ht="17" thickBot="1">
+    <row r="97" spans="1:24" ht="18.75" thickBot="1">
       <c r="A97" s="11">
         <v>90.72</v>
       </c>
@@ -8066,7 +8058,7 @@
       <c r="W97" s="15"/>
       <c r="X97" s="15"/>
     </row>
-    <row r="98" spans="1:24" ht="17" thickBot="1">
+    <row r="98" spans="1:24" ht="18.75" thickBot="1">
       <c r="A98" s="11">
         <v>94.28</v>
       </c>
@@ -8124,7 +8116,7 @@
       <c r="W98" s="15"/>
       <c r="X98" s="15"/>
     </row>
-    <row r="99" spans="1:24" ht="17" thickBot="1">
+    <row r="99" spans="1:24" ht="18.75" thickBot="1">
       <c r="A99" s="11">
         <v>176.9</v>
       </c>
@@ -8182,7 +8174,7 @@
       <c r="W99" s="15"/>
       <c r="X99" s="15"/>
     </row>
-    <row r="100" spans="1:24" ht="17" thickBot="1">
+    <row r="100" spans="1:24" ht="18.75" thickBot="1">
       <c r="A100" s="11">
         <v>197.67</v>
       </c>
@@ -8240,7 +8232,7 @@
       <c r="W100" s="15"/>
       <c r="X100" s="15"/>
     </row>
-    <row r="101" spans="1:24" ht="17" thickBot="1">
+    <row r="101" spans="1:24" ht="18.75" thickBot="1">
       <c r="A101" s="11">
         <v>292.97000000000003</v>
       </c>
@@ -8298,7 +8290,7 @@
       <c r="W101" s="15"/>
       <c r="X101" s="15"/>
     </row>
-    <row r="102" spans="1:24" ht="17" thickBot="1">
+    <row r="102" spans="1:24" ht="18.75" thickBot="1">
       <c r="A102" s="11">
         <v>530.78</v>
       </c>
@@ -8356,7 +8348,7 @@
       <c r="W102" s="15"/>
       <c r="X102" s="15"/>
     </row>
-    <row r="103" spans="1:24" ht="17" thickBot="1">
+    <row r="103" spans="1:24" ht="18.75" thickBot="1">
       <c r="A103" s="11">
         <v>538.32000000000005</v>
       </c>
@@ -8414,7 +8406,7 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
     </row>
-    <row r="104" spans="1:24" ht="17" thickBot="1">
+    <row r="104" spans="1:24" ht="18.75" thickBot="1">
       <c r="A104" s="11">
         <v>879.2</v>
       </c>
@@ -8472,7 +8464,7 @@
       <c r="W104" s="15"/>
       <c r="X104" s="15"/>
     </row>
-    <row r="105" spans="1:24" ht="17" thickBot="1">
+    <row r="105" spans="1:24" ht="18.75" thickBot="1">
       <c r="A105" s="11">
         <v>1447.64</v>
       </c>
@@ -8530,7 +8522,7 @@
       <c r="W105" s="15"/>
       <c r="X105" s="15"/>
     </row>
-    <row r="106" spans="1:24" ht="17" thickBot="1">
+    <row r="106" spans="1:24" ht="18.75" thickBot="1">
       <c r="A106" s="11">
         <v>1691.01</v>
       </c>
@@ -8588,7 +8580,7 @@
       <c r="W106" s="15"/>
       <c r="X106" s="15"/>
     </row>
-    <row r="107" spans="1:24" ht="17" thickBot="1">
+    <row r="107" spans="1:24" ht="18.75" thickBot="1">
       <c r="A107" s="11">
         <v>2009.56</v>
       </c>
@@ -8646,7 +8638,7 @@
       <c r="W107" s="15"/>
       <c r="X107" s="15"/>
     </row>
-    <row r="108" spans="1:24" ht="17" thickBot="1">
+    <row r="108" spans="1:24" ht="18.75" thickBot="1">
       <c r="A108" s="11">
         <v>2411.0100000000002</v>
       </c>
@@ -8704,7 +8696,7 @@
       <c r="W108" s="15"/>
       <c r="X108" s="15"/>
     </row>
-    <row r="109" spans="1:24" ht="17" thickBot="1">
+    <row r="109" spans="1:24" ht="18.75" thickBot="1">
       <c r="A109" s="11">
         <v>2505.3000000000002</v>
       </c>
@@ -8764,12 +8756,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8777,18 +8764,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -8963,7 +8950,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <f>(1/1.128)*((293/600)^(1/2))*O3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*O3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -9042,7 +9029,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S24" si="3">(1/1.128)*((293/600)^(1/2))*O4</f>
+        <f t="shared" ref="S4:S24" si="3">(1/1.128)*((293/473)^(1/2))*O4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="28" t="e">
@@ -9050,7 +9037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5">
         <f t="shared" ref="A5:A23" si="5">A4+1</f>
         <v>3</v>
@@ -9113,11 +9100,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD5" s="28">
         <f t="shared" si="4"/>
-        <v>1.4058985098738214E-4</v>
+        <v>1.2482710998890618E-4</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -9327,7 +9314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15">
+    <row r="10" spans="1:30">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -9390,11 +9377,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="4"/>
-        <v>7.1839665428048841E-7</v>
+        <v>6.3785100809005804E-7</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -9499,7 +9486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15">
+    <row r="13" spans="1:30">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -9562,11 +9549,11 @@
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="4"/>
-        <v>2.5348776162876477E-4</v>
+        <v>2.250670619496945E-4</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -9824,7 +9811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15">
+    <row r="19" spans="1:30">
       <c r="A19">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -9887,11 +9874,11 @@
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AD19" s="28">
         <f t="shared" si="4"/>
-        <v>2.1191972397264402E-6</v>
+        <v>1.8815957558363187E-6</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -9999,7 +9986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15">
+    <row r="22" spans="1:30">
       <c r="A22">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10062,11 +10049,11 @@
       </c>
       <c r="S22">
         <f t="shared" si="3"/>
-        <v>9.8161532246257217E-25</v>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AD22" s="28">
         <f t="shared" si="4"/>
-        <v>6.2586252409903719E-6</v>
+        <v>5.5569167749282712E-6</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -10176,12 +10163,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10191,7 +10173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -10684,11 +10666,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10696,11 +10673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -10880,7 +10857,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <f>(1/1.128)*((293/600)^(1/2))*O3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*O3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -10959,7 +10936,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S18" si="4">(1/1.128)*((293/600)^(1/2))*O4</f>
+        <f t="shared" ref="S4:S18" si="4">(1/1.128)*((293/473)^(1/2))*O4</f>
         <v>0</v>
       </c>
       <c r="AD4" t="e">
@@ -11021,7 +10998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -11081,11 +11058,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>2.9612196455023809E-24</v>
+        <v>3.3351523458252607E-24</v>
       </c>
       <c r="AD6">
         <f t="shared" si="5"/>
-        <v>2.872034781860403E-6</v>
+        <v>2.5500261867368268E-6</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -11139,7 +11116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -11202,14 +11179,14 @@
       </c>
       <c r="S8">
         <f t="shared" si="4"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>3.4222133367756721E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15">
+        <v>3.0385194777220306E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -11272,14 +11249,14 @@
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>3.5675289543953407E-24</v>
+        <v>4.0180243228909762E-24</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>1.1612954982810758E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15">
+        <v>1.0310926420041771E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -11342,11 +11319,11 @@
       </c>
       <c r="S10">
         <f t="shared" si="4"/>
-        <v>9.5466659003775564E-24</v>
+        <v>1.0752186255691457E-23</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
-        <v>2.6450936558408998E-8</v>
+        <v>2.3485293880725674E-8</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -11502,7 +11479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15">
+    <row r="14" spans="1:30">
       <c r="A14">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -11565,11 +11542,11 @@
       </c>
       <c r="S14">
         <f t="shared" si="4"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>4.0951254460100536E-6</v>
+        <v>3.6359856054854466E-6</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -11626,7 +11603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15">
+    <row r="16" spans="1:30">
       <c r="A16">
         <f>A15+1</f>
         <v>14</v>
@@ -11689,11 +11666,11 @@
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>9.8161532246257217E-25</v>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>1.3461395534948614E-5</v>
+        <v>1.1952122356229054E-5</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -11803,11 +11780,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11815,18 +11787,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView topLeftCell="L11" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -12030,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>(1/1.128)*((293/600)^(1/2))*P3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*P3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="28" t="e">
@@ -12078,7 +12050,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD34" si="4">(1/1.128)*((293/600)^(1/2))*P4</f>
+        <f t="shared" ref="AD4:AD34" si="4">(1/1.128)*((293/473)^(1/2))*P4</f>
         <v>0</v>
       </c>
       <c r="AF4" s="28" t="e">
@@ -12134,7 +12106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15">
+    <row r="6" spans="1:32">
       <c r="A6">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -12194,11 +12166,11 @@
       </c>
       <c r="AD6">
         <f t="shared" si="4"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AF6" s="28">
         <f t="shared" si="5"/>
-        <v>3.1746613195217274E-4</v>
+        <v>2.8187226526403455E-4</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -12297,7 +12269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15">
+    <row r="9" spans="1:32">
       <c r="A9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -12350,14 +12322,14 @@
       </c>
       <c r="AD9">
         <f t="shared" si="4"/>
-        <v>2.9612196455023809E-24</v>
+        <v>3.3351523458252607E-24</v>
       </c>
       <c r="AF9" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15">
+    <row r="10" spans="1:32">
       <c r="A10">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -12417,11 +12389,11 @@
       </c>
       <c r="AD10">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF10" s="28">
         <f t="shared" si="5"/>
-        <v>1.2197073920992685E-6</v>
+        <v>1.0829554745137463E-6</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -12526,7 +12498,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15">
+    <row r="13" spans="1:32">
       <c r="A13">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -12586,11 +12558,11 @@
       </c>
       <c r="AD13">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF13" s="28">
         <f t="shared" si="5"/>
-        <v>1.0527512471731331E-6</v>
+        <v>9.3471822324950738E-7</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -12641,7 +12613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15">
+    <row r="15" spans="1:32">
       <c r="A15">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -12701,14 +12673,14 @@
       </c>
       <c r="AD15">
         <f t="shared" si="4"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AF15" s="28">
         <f t="shared" si="5"/>
-        <v>1.1330559184591359E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="15">
+        <v>1.0060192450860019E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -12768,14 +12740,14 @@
       </c>
       <c r="AD16">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF16" s="28">
         <f t="shared" si="5"/>
-        <v>3.450426995140136E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="15">
+        <v>3.0635698594609405E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -12835,14 +12807,14 @@
       </c>
       <c r="AD17">
         <f t="shared" si="4"/>
-        <v>3.5675289543953407E-24</v>
+        <v>4.0180243228909762E-24</v>
       </c>
       <c r="AF17" s="28">
         <f t="shared" si="5"/>
-        <v>3.8650074078951035E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="15">
+        <v>3.4316680857465273E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -12902,14 +12874,14 @@
       </c>
       <c r="AD18">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF18" s="28">
         <f t="shared" si="5"/>
-        <v>1.0944902834046669E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="15">
+        <v>9.7177753606556712E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -12969,14 +12941,14 @@
       </c>
       <c r="AD19">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF19" s="28">
         <f t="shared" si="5"/>
-        <v>3.960570771303328E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="15">
+        <v>3.5165170161016704E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -13036,11 +13008,11 @@
       </c>
       <c r="AD20">
         <f t="shared" si="4"/>
-        <v>9.5466659003775564E-24</v>
+        <v>1.0752186255691457E-23</v>
       </c>
       <c r="AF20" s="28">
         <f t="shared" si="5"/>
-        <v>2.0358988999343616E-8</v>
+        <v>1.8076367114949727E-8</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -13136,7 +13108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="15">
+    <row r="23" spans="1:32">
       <c r="A23">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -13193,11 +13165,11 @@
       </c>
       <c r="AD23">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF23" s="28">
         <f t="shared" si="5"/>
-        <v>2.7547763912812378E-7</v>
+        <v>2.4459146458599445E-7</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -13290,7 +13262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15">
+    <row r="26" spans="1:32">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -13347,14 +13319,14 @@
       </c>
       <c r="AD26">
         <f t="shared" si="4"/>
-        <v>8.1662712891367211E-25</v>
+        <v>9.1974801288302173E-25</v>
       </c>
       <c r="AF26" s="28">
         <f t="shared" si="5"/>
-        <v>5.0321419274796754E-8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="15">
+        <v>4.4679450860053039E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -13411,14 +13383,14 @@
       </c>
       <c r="AD27">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AF27" s="28">
         <f t="shared" si="5"/>
-        <v>2.6712983188181705E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="15">
+        <v>2.3717960202278254E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -13475,11 +13447,11 @@
       </c>
       <c r="AD28">
         <f t="shared" si="4"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AF28" s="28">
         <f t="shared" si="5"/>
-        <v>7.5229338375399575E-6</v>
+        <v>6.6794728281072355E-6</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -13530,7 +13502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="15">
+    <row r="30" spans="1:32">
       <c r="A30">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -13587,11 +13559,11 @@
       </c>
       <c r="AD30">
         <f t="shared" si="4"/>
-        <v>9.8161532246257217E-25</v>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AF30" s="28">
         <f t="shared" si="5"/>
-        <v>8.5389763777536061E-6</v>
+        <v>7.5815980742036978E-6</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -13687,7 +13659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15">
+    <row r="33" spans="1:32">
       <c r="A33">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -13744,14 +13716,14 @@
       </c>
       <c r="AD33">
         <f t="shared" si="4"/>
-        <v>9.5466659003775564E-24</v>
+        <v>1.0752186255691457E-23</v>
       </c>
       <c r="AF33" s="28">
         <f t="shared" si="5"/>
-        <v>8.7155538191169973E-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="15">
+        <v>7.7383778953630909E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34">
         <f>A33+1</f>
         <v>32</v>
@@ -13808,20 +13780,15 @@
       </c>
       <c r="AD34">
         <f t="shared" si="4"/>
-        <v>9.8161532246257217E-25</v>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AF34" s="28">
         <f t="shared" si="5"/>
-        <v>9.1256236098130143E-6</v>
+        <v>8.1024712243398302E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13829,15 +13796,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -14042,7 +14009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -14196,7 +14163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -14253,7 +14220,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -14410,7 +14377,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15">
+    <row r="11" spans="1:30">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -14519,7 +14486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15">
+    <row r="13" spans="1:30">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -14583,7 +14550,7 @@
         <v>1.3599341544640593E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15">
+    <row r="14" spans="1:30">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -14692,7 +14659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15">
+    <row r="16" spans="1:30">
       <c r="A16">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -14756,7 +14723,7 @@
         <v>2.4714985081263028E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15">
+    <row r="17" spans="1:30">
       <c r="A17">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -14820,7 +14787,7 @@
         <v>3.4299873924915516E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15">
+    <row r="18" spans="1:30">
       <c r="A18">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -14929,7 +14896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15">
+    <row r="20" spans="1:30">
       <c r="A20">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -15083,7 +15050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15">
+    <row r="23" spans="1:30">
       <c r="A23">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -15144,7 +15111,7 @@
       </c>
       <c r="AD23" s="28">
         <f t="shared" si="4"/>
-        <v>1.1653346287460835E-6</v>
+        <v>1.1653346287460837E-6</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -15237,7 +15204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15">
+    <row r="26" spans="1:30">
       <c r="A26">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -15301,7 +15268,7 @@
         <v>8.5987661571027106E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15">
+    <row r="27" spans="1:30">
       <c r="A27">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -15365,7 +15332,7 @@
         <v>8.4960357169665222E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15">
+    <row r="28" spans="1:30">
       <c r="A28">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -15522,7 +15489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15">
+    <row r="31" spans="1:30">
       <c r="A31">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -15676,7 +15643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15">
+    <row r="34" spans="1:30">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -15742,11 +15709,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15755,16 +15717,16 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="S3" sqref="S3:S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -15942,7 +15904,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <f>(1/1.128)*((293/600)^(1/2))*O3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*O3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -16021,17 +15983,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <f>(1/1.128)*((293/600)^(1/2))*O4</f>
+        <f t="shared" ref="S4:S23" si="4">(1/1.128)*((293/473)^(1/2))*O4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="28" t="e">
-        <f t="shared" ref="AD4:AD23" si="4">R4*(M4/(6.022E+23*N4))*(1/K4)*(1/($AB$3*S4*100))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15">
+        <f t="shared" ref="AD4:AD23" si="5">R4*(M4/(6.022E+23*N4))*(1/K4)*(1/($AB$3*S4*100))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
-        <f t="shared" ref="A5:A23" si="5">A4+1</f>
+        <f t="shared" ref="A5:A23" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -16091,17 +16053,17 @@
         <v>0.38001971885415747</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S23" si="6">(1/1.128)*((293/600)^(1/2))*O5</f>
-        <v>9.3786544927083537E-23</v>
+        <f t="shared" si="4"/>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD5" s="28">
-        <f t="shared" si="4"/>
-        <v>1.4352048631179542E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.2742916650585023E-4</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -16142,17 +16104,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD6" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -16196,17 +16158,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15">
-      <c r="A8">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -16259,17 +16221,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S8">
+        <f t="shared" si="4"/>
+        <v>3.3351523458252607E-24</v>
+      </c>
+      <c r="AD8" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
         <f t="shared" si="6"/>
-        <v>2.9612196455023809E-24</v>
-      </c>
-      <c r="AD8" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15">
-      <c r="A9">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -16329,17 +16291,17 @@
         <v>1.5907935347758515</v>
       </c>
       <c r="S9">
-        <f t="shared" si="6"/>
-        <v>5.0534201091907053E-24</v>
+        <f t="shared" si="4"/>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD9" s="1">
         <f>R9*(M9/(6.022E+23*N9))*(1/K9)*(1/($AB$3*S9*100))</f>
-        <v>1.5743069885449715E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15">
+        <v>1.3977978512335434E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -16399,17 +16361,17 @@
         <v>5.3571710297078807</v>
       </c>
       <c r="S10">
+        <f t="shared" si="4"/>
+        <v>5.691548736415532E-24</v>
+      </c>
+      <c r="AD10" s="28">
+        <f t="shared" si="5"/>
+        <v>4.707236979732498E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
         <f t="shared" si="6"/>
-        <v>5.0534201091907053E-24</v>
-      </c>
-      <c r="AD10" s="28">
-        <f t="shared" si="4"/>
-        <v>5.3016507840460479E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15">
-      <c r="A11">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -16469,17 +16431,17 @@
         <v>0.53571710297078801</v>
       </c>
       <c r="S11">
+        <f t="shared" si="4"/>
+        <v>5.691548736415532E-24</v>
+      </c>
+      <c r="AD11" s="28">
+        <f t="shared" si="5"/>
+        <v>4.7072369797324979E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
         <f t="shared" si="6"/>
-        <v>5.0534201091907053E-24</v>
-      </c>
-      <c r="AD11" s="28">
-        <f t="shared" si="4"/>
-        <v>5.3016507840460474E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15">
-      <c r="A12">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -16539,17 +16501,17 @@
         <v>1.9302173481084883</v>
       </c>
       <c r="S12">
+        <f t="shared" si="4"/>
+        <v>5.691548736415532E-24</v>
+      </c>
+      <c r="AD12" s="28">
+        <f t="shared" si="5"/>
+        <v>1.6960426369723202E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
         <f t="shared" si="6"/>
-        <v>5.0534201091907053E-24</v>
-      </c>
-      <c r="AD12" s="28">
-        <f t="shared" si="4"/>
-        <v>1.9102131069234614E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15">
-      <c r="A13">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -16609,17 +16571,17 @@
         <v>0.38358980350122074</v>
       </c>
       <c r="S13">
+        <f t="shared" si="4"/>
+        <v>5.691548736415532E-24</v>
+      </c>
+      <c r="AD13" s="28">
+        <f t="shared" si="5"/>
+        <v>3.3705254099153308E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
         <f t="shared" si="6"/>
-        <v>5.0534201091907053E-24</v>
-      </c>
-      <c r="AD13" s="28">
-        <f t="shared" si="4"/>
-        <v>3.7961438438436583E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15">
-      <c r="A14">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -16679,17 +16641,17 @@
         <v>0.51314431190943655</v>
       </c>
       <c r="S14">
-        <f t="shared" si="6"/>
-        <v>9.5466659003775564E-24</v>
+        <f t="shared" si="4"/>
+        <v>1.0752186255691457E-23</v>
       </c>
       <c r="AD14" s="28">
-        <f t="shared" si="4"/>
-        <v>6.5743664694315496E-9</v>
+        <f t="shared" si="5"/>
+        <v>5.8372575304938807E-9</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -16730,17 +16692,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD15" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -16781,17 +16743,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="15">
-      <c r="A17">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -16851,17 +16813,17 @@
         <v>5.2230644970360771</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
-        <v>3.5675289543953407E-24</v>
+        <f t="shared" si="4"/>
+        <v>4.0180243228909762E-24</v>
       </c>
       <c r="AD17" s="28">
-        <f t="shared" si="4"/>
-        <v>7.3206725248603879E-5</v>
+        <f t="shared" si="5"/>
+        <v>6.4998887760079184E-5</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -16902,17 +16864,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15">
-      <c r="A19">
-        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -16972,17 +16934,17 @@
         <v>99.720191274171256</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
-        <v>3.6168606225100104E-24</v>
+        <f t="shared" si="4"/>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AD19" s="28">
-        <f t="shared" si="4"/>
-        <v>8.1812189619442912E-6</v>
+        <f t="shared" si="5"/>
+        <v>7.2639519284902037E-6</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -17026,17 +16988,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15">
-      <c r="A21">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -17096,17 +17058,17 @@
         <v>301.06098228952607</v>
       </c>
       <c r="S21">
-        <f t="shared" si="6"/>
-        <v>9.8161532246257217E-25</v>
+        <f t="shared" si="4"/>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AD21" s="28">
-        <f t="shared" si="4"/>
-        <v>2.5070105746637852E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.2259279923057442E-5</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -17147,17 +17109,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD22" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -17198,21 +17160,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD23" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17220,17 +17177,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="H5" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -17405,7 +17362,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <f>(1/1.128)*((293/600)^(1/2))*O3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*O3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -17484,7 +17441,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S28" si="4">(1/1.128)*((293/600)^(1/2))*O4</f>
+        <f t="shared" ref="S4:S28" si="4">(1/1.128)*((293/473)^(1/2))*O4</f>
         <v>0</v>
       </c>
       <c r="AD4" s="28" t="e">
@@ -17492,7 +17449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5">
         <f t="shared" ref="A5:A27" si="6">A4+1</f>
         <v>3</v>
@@ -17548,14 +17505,14 @@
       </c>
       <c r="S5">
         <f t="shared" si="4"/>
-        <v>2.9612196455023809E-24</v>
+        <v>3.3351523458252607E-24</v>
       </c>
       <c r="AD5" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -17618,11 +17575,11 @@
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD6" s="28">
         <f t="shared" si="5"/>
-        <v>1.1085303319540061E-5</v>
+        <v>9.8424343365496888E-6</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -17727,7 +17684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15">
+    <row r="9" spans="1:30">
       <c r="A9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -17790,14 +17747,14 @@
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AD9" s="28">
         <f t="shared" si="5"/>
-        <v>5.3311752939561334E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15">
+        <v>4.7334512421421341E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -17860,14 +17817,14 @@
       </c>
       <c r="S10">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD10" s="28">
         <f t="shared" si="5"/>
-        <v>3.1922440908031517E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15">
+        <v>2.8343340677548916E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -17930,14 +17887,14 @@
       </c>
       <c r="S11">
         <f t="shared" si="4"/>
-        <v>3.5675289543953407E-24</v>
+        <v>4.0180243228909762E-24</v>
       </c>
       <c r="AD11" s="28">
         <f t="shared" si="5"/>
-        <v>3.6919910837344936E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15">
+        <v>3.2780501142201828E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -18000,14 +17957,14 @@
       </c>
       <c r="S12">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD12" s="28">
         <f t="shared" si="5"/>
-        <v>1.2701629441465708E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15">
+        <v>1.1277540193640772E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -18070,14 +18027,14 @@
       </c>
       <c r="S13">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD13" s="28">
         <f t="shared" si="5"/>
-        <v>3.4885705464895211E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15">
+        <v>3.0974368082215909E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -18140,11 +18097,11 @@
       </c>
       <c r="S14">
         <f t="shared" si="4"/>
-        <v>9.5466659003775564E-24</v>
+        <v>1.0752186255691457E-23</v>
       </c>
       <c r="AD14" s="28">
         <f t="shared" si="5"/>
-        <v>6.852817416043872E-8</v>
+        <v>6.0844889394126569E-8</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -18300,7 +18257,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15">
+    <row r="18" spans="1:30">
       <c r="A18">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -18363,11 +18320,11 @@
       </c>
       <c r="S18">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD18" s="28">
         <f t="shared" si="5"/>
-        <v>2.39755041418971E-6</v>
+        <v>2.1287403546851092E-6</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -18472,7 +18429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15">
+    <row r="21" spans="1:30">
       <c r="A21">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -18535,14 +18492,14 @@
       </c>
       <c r="S21">
         <f t="shared" si="4"/>
-        <v>8.1662712891367211E-25</v>
+        <v>9.1974801288302173E-25</v>
       </c>
       <c r="AD21" s="28">
         <f t="shared" si="5"/>
-        <v>1.6029980319856607E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="15">
+        <v>1.4232720942896005E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -18605,14 +18562,14 @@
       </c>
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD22" s="28">
         <f t="shared" si="5"/>
-        <v>3.0575502473093485E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15">
+        <v>2.7147419129973017E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -18675,14 +18632,14 @@
       </c>
       <c r="S23">
         <f t="shared" si="4"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AD23" s="28">
         <f t="shared" si="5"/>
-        <v>2.7812294030673175E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15">
+        <v>2.4694017822966641E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -18745,11 +18702,11 @@
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AD24" s="28">
         <f t="shared" si="5"/>
-        <v>2.7073462542254583E-6</v>
+        <v>2.4038023106275666E-6</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -18809,7 +18766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15">
+    <row r="26" spans="1:30">
       <c r="A26">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -18872,11 +18829,11 @@
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>9.8161532246257217E-25</v>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AD26" s="28">
         <f t="shared" si="5"/>
-        <v>7.596280594180448E-5</v>
+        <v>6.7445960471318719E-5</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -18986,11 +18943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18998,23 +18950,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19233,7 +19185,7 @@
         <v>126</v>
       </c>
       <c r="AE3">
-        <f>(1/1.128)*((293/600)^(1/2))*AD3</f>
+        <f>(1/1.128)*((293/473)^(1/2))*AD3</f>
         <v>0</v>
       </c>
       <c r="AG3" t="e">
@@ -19289,7 +19241,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE33" si="5">(1/1.128)*((293/600)^(1/2))*AD4</f>
+        <f t="shared" ref="AE4:AE33" si="5">(1/1.128)*((293/473)^(1/2))*AD4</f>
         <v>0</v>
       </c>
       <c r="AG4" t="e">
@@ -19297,7 +19249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15">
+    <row r="5" spans="1:33">
       <c r="A5">
         <f t="shared" ref="A5:A32" si="7">A4+1</f>
         <v>3</v>
@@ -19370,11 +19322,11 @@
       </c>
       <c r="AE5">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG5">
         <f t="shared" si="6"/>
-        <v>1.9710523597482335E-7</v>
+        <v>1.7500606763305258E-7</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -19489,7 +19441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15">
+    <row r="8" spans="1:33">
       <c r="A8">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -19557,11 +19509,11 @@
       </c>
       <c r="AE8">
         <f t="shared" si="5"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AG8">
         <f t="shared" si="6"/>
-        <v>9.9043305350792103E-5</v>
+        <v>8.7938705986662899E-5</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -19679,7 +19631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15">
+    <row r="11" spans="1:33">
       <c r="A11">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -19740,14 +19692,14 @@
       </c>
       <c r="AE11">
         <f t="shared" si="5"/>
-        <v>2.9612196455023809E-24</v>
+        <v>3.3351523458252607E-24</v>
       </c>
       <c r="AG11" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:33">
       <c r="A12">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -19820,14 +19772,14 @@
       </c>
       <c r="AE12">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG12">
         <f t="shared" si="6"/>
-        <v>1.8988943735532112E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1">
+        <v>1.6859929444417394E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.75" thickBot="1">
       <c r="A13">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -19883,7 +19835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17" thickBot="1">
+    <row r="14" spans="1:33" ht="16.5" thickBot="1">
       <c r="A14">
         <f t="shared" si="7"/>
         <v>12</v>
@@ -19957,14 +19909,14 @@
       </c>
       <c r="AE14">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG14">
         <f t="shared" si="6"/>
-        <v>1.9254788947829565E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="15">
+        <v>1.7095968456639241E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -20031,14 +19983,14 @@
       </c>
       <c r="AE15">
         <f t="shared" si="5"/>
-        <v>9.3786544927083537E-23</v>
+        <v>1.0562958941444635E-22</v>
       </c>
       <c r="AG15">
         <f t="shared" si="6"/>
-        <v>1.3102014393547644E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="15">
+        <v>1.1633034534807125E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>14</v>
@@ -20105,14 +20057,14 @@
       </c>
       <c r="AE16">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG16">
         <f t="shared" si="6"/>
-        <v>5.39286002089112E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="16" thickBot="1">
+        <v>4.7882199622145405E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15.75" thickBot="1">
       <c r="A17">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -20179,14 +20131,14 @@
       </c>
       <c r="AE17">
         <f t="shared" si="5"/>
-        <v>3.5675289543953407E-24</v>
+        <v>4.0180243228909762E-24</v>
       </c>
       <c r="AG17">
         <f t="shared" si="6"/>
-        <v>2.260000494603092E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="17" thickBot="1">
+        <v>2.0066123431635303E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="16.5" thickBot="1">
       <c r="A18">
         <f t="shared" si="7"/>
         <v>16</v>
@@ -20260,14 +20212,14 @@
       </c>
       <c r="AE18">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG18">
         <f t="shared" si="6"/>
-        <v>1.5760823300491655E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15">
+        <v>1.399374143886644E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19">
         <f t="shared" si="7"/>
         <v>17</v>
@@ -20334,11 +20286,11 @@
       </c>
       <c r="AE19">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG19">
         <f t="shared" si="6"/>
-        <v>5.0510590336515428E-7</v>
+        <v>4.4847412322150284E-7</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -20464,7 +20416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15">
+    <row r="22" spans="1:33">
       <c r="A22">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -20531,11 +20483,11 @@
       </c>
       <c r="AE22">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG22">
         <f t="shared" si="6"/>
-        <v>2.8217570391000723E-7</v>
+        <v>2.5053855154404249E-7</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -20648,7 +20600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15">
+    <row r="25" spans="1:33">
       <c r="A25">
         <f t="shared" si="7"/>
         <v>23</v>
@@ -20715,14 +20667,14 @@
       </c>
       <c r="AE25">
         <f t="shared" si="5"/>
-        <v>8.1662712891367211E-25</v>
+        <v>9.1974801288302173E-25</v>
       </c>
       <c r="AG25">
         <f t="shared" si="6"/>
-        <v>3.3060829998228356E-9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="15">
+        <v>2.9354095146482277E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26">
         <f t="shared" si="7"/>
         <v>24</v>
@@ -20789,14 +20741,14 @@
       </c>
       <c r="AE26">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG26">
         <f t="shared" si="6"/>
-        <v>3.5129545910734414E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="15">
+        <v>3.1190869472172185E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -20863,14 +20815,14 @@
       </c>
       <c r="AE27">
         <f t="shared" si="5"/>
-        <v>3.6168606225100104E-24</v>
+        <v>4.0735854255217812E-24</v>
       </c>
       <c r="AG27">
         <f t="shared" si="6"/>
-        <v>2.7175319020226731E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="15">
+        <v>2.4128459575833149E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>26</v>
@@ -20937,11 +20889,11 @@
       </c>
       <c r="AE28">
         <f t="shared" si="5"/>
-        <v>5.0534201091907053E-24</v>
+        <v>5.691548736415532E-24</v>
       </c>
       <c r="AG28">
         <f t="shared" si="6"/>
-        <v>2.3356400794704502E-7</v>
+        <v>2.07377132166334E-7</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -21002,7 +20954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15">
+    <row r="30" spans="1:33">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>28</v>
@@ -21068,12 +21020,12 @@
         <v>1.5845E-24</v>
       </c>
       <c r="AE30">
-        <f>(1/1.128)*((293/600)^(1/2))*AD30</f>
-        <v>9.8161532246257217E-25</v>
+        <f t="shared" si="5"/>
+        <v>1.1055703518587354E-24</v>
       </c>
       <c r="AG30">
         <f t="shared" si="6"/>
-        <v>6.6393721384807605E-6</v>
+        <v>5.8949748532118392E-6</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -21122,6 +21074,10 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AE31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AG31" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -21197,11 +21153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Short Run Analysis.xlsx
+++ b/Short Run Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sample A Count 1" sheetId="1" r:id="rId1"/>
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1730,29 +1730,42 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J13">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
         <v>0.40129540974373418</v>
       </c>
-      <c r="N13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.40225480627762733</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.40834738857533981</v>
+      </c>
+      <c r="P13">
+        <v>41</v>
+      </c>
+      <c r="Q13">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="R13" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="S13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="28" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AD13" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3504339153496399E-7</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1911,7 +1924,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="13:30">
+    <row r="17" spans="1:30">
       <c r="M17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1931,6 +1944,11 @@
       <c r="AD17" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8764,8 +8782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9102,8 +9120,8 @@
         <f t="shared" si="3"/>
         <v>1.0562958941444635E-22</v>
       </c>
-      <c r="AD5" s="28">
-        <f t="shared" si="4"/>
+      <c r="AD5" s="1">
+        <f>R5*(M5/(6.022E+23*N5))*(1/K5)*(1/($AB$3*S5*100))</f>
         <v>1.2482710998890618E-4</v>
       </c>
     </row>
@@ -9910,29 +9928,42 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="K20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="O20" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="P20">
         <f t="shared" si="6"/>
         <v>1.5770205575894114</v>
       </c>
-      <c r="Q20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1.5943055382905367</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1.6356372296490149</v>
       </c>
       <c r="S20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="28" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AD20" s="28">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.7453203456686143E-6</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -10673,8 +10704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11578,29 +11609,42 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
+      </c>
+      <c r="M15">
+        <v>41</v>
+      </c>
+      <c r="N15">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="O15" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
         <v>3.6740146960587845</v>
       </c>
-      <c r="Q15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>3.7039712222841077</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>3.7792153605746259</v>
       </c>
       <c r="S15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.6537356352917144E-6</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -11787,8 +11831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="L11" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13477,29 +13521,42 @@
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="K29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
+      </c>
+      <c r="N29">
+        <v>41</v>
+      </c>
+      <c r="O29">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="P29" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
         <v>6.9119720923328147</v>
       </c>
-      <c r="R29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>7.1146443252131544</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>7.4810853301984466</v>
       </c>
       <c r="AD29">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="28" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AF29" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.6291278811949379E-5</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -13796,8 +13853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15464,29 +15521,42 @@
       <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="K30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J30">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
+      </c>
+      <c r="M30">
+        <v>41</v>
+      </c>
+      <c r="N30">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="O30" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
         <v>9.9140401146131811</v>
       </c>
-      <c r="Q30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>10.001848937458989</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>10.263860339020111</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="28" t="e">
+        <v>2.5181205333293731E-24</v>
+      </c>
+      <c r="AD30" s="28">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.6470233440459582E-5</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -15716,8 +15786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16971,29 +17041,42 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="K20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="O20" s="27">
+        <v>4.0646899999999997E-24</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
         <v>5.0541228907991087</v>
       </c>
-      <c r="Q20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>5.2039006346952457</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>5.462219681095875</v>
       </c>
       <c r="S20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="28" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AD20" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.2507518252387703E-5</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -17178,7 +17261,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18738,32 +18821,42 @@
       <c r="I25" t="s">
         <v>21</v>
       </c>
-      <c r="K25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J25">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
       </c>
       <c r="M25">
         <v>41</v>
       </c>
+      <c r="N25">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="O25" s="27">
+        <v>4.0646899999999997E-24</v>
+      </c>
       <c r="P25">
         <f t="shared" si="1"/>
         <v>16.404464165658194</v>
       </c>
-      <c r="Q25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>16.551583899856819</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>16.982792952382738</v>
       </c>
       <c r="S25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="28" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AD25" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.8887596111079947E-5</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -18950,8 +19043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20925,33 +21018,46 @@
       <c r="I29" t="s">
         <v>21</v>
       </c>
-      <c r="K29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J29">
+        <f>12.36*3600</f>
+        <v>44496</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.5577741382594957E-5</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
         <v>1.5687329120164941</v>
       </c>
-      <c r="N29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>1.6144185540656357</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>1.6946630831500009</v>
       </c>
       <c r="R29" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S29">
+        <v>41</v>
+      </c>
+      <c r="AC29">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="AD29" s="27">
+        <v>4.0646899999999997E-24</v>
+      </c>
       <c r="AE29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" t="e">
+        <v>2.83610019154098E-24</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>3.880479124174247E-6</v>
       </c>
     </row>
     <row r="30" spans="1:33">
